--- a/inst/extdata/example-fullCriteriaDf.xlsx
+++ b/inst/extdata/example-fullCriteriaDf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Data\R\dmcda\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFB6399-5701-4C4A-AA10-5632CFC94CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B7E163-0FDC-4A1E-93D8-1D4205E215DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2E47099A-D45E-4914-93FE-269E72082B6E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t>label</t>
   </si>
@@ -77,9 +77,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>outcomes</t>
-  </si>
-  <si>
     <t>Use</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Crime to be able to fund substance use.</t>
+  </si>
+  <si>
+    <t>isLeaf</t>
   </si>
 </sst>
 </file>
@@ -541,21 +541,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA4C32B-7978-42A3-84C2-D188F7AC57D3}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="8" max="8" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="13" max="13" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -586,13 +589,16 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -618,13 +624,16 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -648,79 +657,88 @@
         <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>-100</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H4" s="1">
         <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>-100</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H5" s="1">
         <v>100</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -744,79 +762,88 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="1">
         <v>-100</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H7" s="1">
         <v>100</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D8" s="1">
         <v>-100</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H8" s="1">
         <v>100</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -840,71 +867,80 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D10" s="1">
         <v>-100</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H10" s="1">
         <v>100</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>-100</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H11" s="1">
         <v>100</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
